--- a/biology/Botanique/Pinova/Pinova.xlsx
+++ b/biology/Botanique/Pinova/Pinova.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinova est un cultivar de pommier domestique créé en 1986 par l'Institut de recherche du fruit à Pillnitz (Dresde, en Allemagne).
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sonata
 Corail
@@ -543,9 +557,11 @@
           <t>Règlementations et protections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>PINOVA est une variété inscrite au registre de l'Union européenne[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PINOVA est une variété inscrite au registre de l'Union européenne :
 Numéro de variété : 1298
 Date d'inscription : 30/08/1995
 Demandeur : Artevos GmbH</t>
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Pinova est une pomme de garde, sphérique, de taille moyenne et de couleur rouge carmin sur fond jaune.
 Elle combine le goût de la Cox Orange avec la coloration et la fertilité de l'Oldenburg ainsi que la forme, la facilité de stockage et de conservation de la Golden Delicious. 
@@ -611,9 +629,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pinova est issue du croisement Clivia x Golden Delicious[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pinova est issue du croisement Clivia x Golden Delicious.
 (Clivia est un croisement de Oldenburg et de Cox's Orange Pippin).
 Descendants:
 Pivita
@@ -645,7 +665,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété diploïde.
 Floraison: longue et abondante. Groupes de pollinisation: B-C.
@@ -681,11 +703,13 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre, très  exigeant en fumure[3], est de vigueur moyenne à faible. Il est bien ramifié et à port ouvert légèrement retombant.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre, très  exigeant en fumure, est de vigueur moyenne à faible. Il est bien ramifié et à port ouvert légèrement retombant.
 La fertilité est bonne (100 à 150 % de la fertilité de la Golden) sans alternance. La variété a acquis de la Golden Delicious, dont elle est issue, la faculté de mettre  à fruit rapidement et de produire sur du bois jeune.
-Malgré sa forte tendance à produire des fleurs décalées, Pinova est peu sensible au feu bactérien et à la tavelure du pommier et moyennement à l'oïdium. Très sensible à la gloéosporiose, elle reste recommandée en agriculture biologique[4].
+Malgré sa forte tendance à produire des fleurs décalées, Pinova est peu sensible au feu bactérien et à la tavelure du pommier et moyennement à l'oïdium. Très sensible à la gloéosporiose, elle reste recommandée en agriculture biologique.
 Un éclaircissage est bénéfique à l'obtention de fruits de bon calibre. Un apport en engrais annuel est le bienvenu en limitant l'apport en azote pour obtenir de beaux fruits.
 Le fruit est mature en septembre-octobre et se conserve jusqu'en mai.
 </t>
